--- a/bank statement generator/bank_statements/statement_64.xlsx
+++ b/bank statement generator/bank_statements/statement_64.xlsx
@@ -682,7 +682,7 @@
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>Engin</t>
+          <t>Hartmut</t>
         </is>
       </c>
       <c r="D2" s="8" t="n"/>
@@ -699,12 +699,12 @@
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="8" t="inlineStr">
         <is>
-          <t>2267041356247526</t>
+          <t>2570314725427075</t>
         </is>
       </c>
       <c r="C3" s="8" t="inlineStr">
         <is>
-          <t>Peukert</t>
+          <t>Mohaupt</t>
         </is>
       </c>
       <c r="D3" s="8" t="n"/>
@@ -751,7 +751,7 @@
       <c r="C5" s="8" t="n"/>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 06.01.2025</t>
+          <t>KONTOSTAND AM 16.06.2024</t>
         </is>
       </c>
       <c r="E5" s="17" t="n"/>
@@ -759,112 +759,96 @@
     <row r="6" ht="15.75" customHeight="1">
       <c r="B6" s="8" t="inlineStr">
         <is>
-          <t>08.01.</t>
+          <t>18.06.</t>
         </is>
       </c>
       <c r="C6" s="8" t="inlineStr">
         <is>
-          <t>09.01.</t>
+          <t>19.06.</t>
         </is>
       </c>
       <c r="D6" s="8" t="inlineStr">
         <is>
-          <t>BEITRAG Allianz SE K-45772043</t>
+          <t>KARTENZAHLUNG ARAL TANKSTELLE</t>
         </is>
       </c>
       <c r="E6" s="17" t="inlineStr">
         <is>
-          <t>56,14-</t>
+          <t>60,97-</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="8" t="inlineStr">
         <is>
-          <t>11.01.</t>
+          <t>20.06.</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
         <is>
-          <t>12.01.</t>
+          <t>21.06.</t>
         </is>
       </c>
       <c r="D7" s="8" t="inlineStr">
         <is>
-          <t>AMAZON.DE MKTPLC EU ZOVFTC</t>
+          <t>MITGLIEDSBEITRAG ZEUS BODYPOWER</t>
         </is>
       </c>
       <c r="E7" s="17" t="inlineStr">
         <is>
-          <t>22,91-</t>
+          <t>24,94-</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="8" t="inlineStr">
         <is>
-          <t>13.01.</t>
+          <t>24.06.</t>
         </is>
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>14.01.</t>
+          <t>25.06.</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>MCDONALDS Luckenwalde</t>
+          <t>RECHNUNG VODAFONE GMBH 1794266</t>
         </is>
       </c>
       <c r="E8" s="17" t="inlineStr">
         <is>
-          <t>15,11-</t>
+          <t>40,41-</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>14.01.</t>
+          <t>26.06.</t>
         </is>
       </c>
       <c r="C9" s="8" t="inlineStr">
         <is>
-          <t>15.01.</t>
+          <t>27.06.</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
         <is>
-          <t>ABSCHLAG STROM Stadtwerke Rosenheim 87216108</t>
+          <t>BEITRAG Allianz SE K-51295472</t>
         </is>
       </c>
       <c r="E9" s="17" t="inlineStr">
         <is>
-          <t>84,76-</t>
+          <t>56,98-</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="8" t="inlineStr">
-        <is>
-          <t>16.01.</t>
-        </is>
-      </c>
-      <c r="C10" s="8" t="inlineStr">
-        <is>
-          <t>17.01.</t>
-        </is>
-      </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>RECHNUNG VODAFONE GMBH 39911033</t>
-        </is>
-      </c>
-      <c r="E10" s="17" t="inlineStr">
-        <is>
-          <t>41,14-</t>
-        </is>
-      </c>
+      <c r="B10" s="8" t="n"/>
+      <c r="C10" s="8" t="n"/>
+      <c r="D10" s="8" t="n"/>
+      <c r="E10" s="12" t="n"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="B11" s="8" t="n"/>
@@ -877,12 +861,12 @@
       <c r="C12" s="8" t="n"/>
       <c r="D12" s="9" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 20.01.2025</t>
+          <t>KONTOSTAND AM 30.06.2024</t>
         </is>
       </c>
       <c r="E12" s="17" t="inlineStr">
         <is>
-          <t>220,06-</t>
+          <t>183,30-</t>
         </is>
       </c>
     </row>
@@ -890,7 +874,7 @@
       <c r="B13" s="11" t="n"/>
       <c r="C13" s="11" t="inlineStr">
         <is>
-          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 30.01.2025</t>
+          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 06.07.2024</t>
         </is>
       </c>
       <c r="D13" s="11" t="n"/>
